--- a/analysis/summary_caucasus.xlsx
+++ b/analysis/summary_caucasus.xlsx
@@ -9,12 +9,14 @@
     <sheet name="SSY summary" r:id="rId3" sheetId="1"/>
     <sheet name="Subset summary" r:id="rId4" sheetId="2"/>
     <sheet name="Kriging variograms" r:id="rId5" sheetId="3"/>
+    <sheet name="Co-Kriging variograms" r:id="rId6" sheetId="4"/>
+    <sheet name="Best model" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="104">
   <si>
     <t>group</t>
   </si>
@@ -263,6 +265,69 @@
   </si>
   <si>
     <t>Ordinary Kriging</t>
+  </si>
+  <si>
+    <t>Co-kriging</t>
+  </si>
+  <si>
+    <t>NSE</t>
+  </si>
+  <si>
+    <t>KGE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Кригинг</t>
+  </si>
+  <si>
+    <t>KNN-h</t>
+  </si>
+  <si>
+    <t>Ко-кригинг</t>
+  </si>
+  <si>
+    <t>модель</t>
+  </si>
+  <si>
+    <t>валидация</t>
+  </si>
+  <si>
+    <t>17 600 000</t>
+  </si>
+  <si>
+    <t>1.07e+08</t>
+  </si>
+  <si>
+    <t>1.21e+08</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>88.2</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>85.4</t>
   </si>
 </sst>
 </file>
@@ -324,7 +389,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="535">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
@@ -1243,6 +1308,588 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
       <alignment wrapText="true"/>
     </xf>
@@ -1261,6 +1908,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -1273,52 +1926,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
@@ -1354,104 +2004,104 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="504" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="506" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="507" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="508" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="509" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="510" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="511" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="512" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="514" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="517" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="520" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="523" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="526" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="127" t="s">
-        <v>28</v>
+      <c r="G2" s="529" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="532" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="513" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="515" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="518" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="521" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="524" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="527" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="128" t="s">
-        <v>29</v>
+      <c r="G3" s="530" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="533" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4"/>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="516" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="519" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="522" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="525" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="129" t="s">
+      <c r="G4" s="531" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="534" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1662,4 +2312,364 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="340" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="341" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="342" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="343" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="344" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="345" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="346" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="350" t="n">
+        <v>5.67E-4</v>
+      </c>
+      <c r="C2" s="354" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D2" s="358" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="E2" s="362" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="F2" s="366" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="347" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="351" t="n">
+        <v>0.00185</v>
+      </c>
+      <c r="C3" s="355" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="D3" s="359" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="E3" s="363" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F3" s="367" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="352" t="n">
+        <v>9.08E-4</v>
+      </c>
+      <c r="C4" s="356" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="D4" s="360" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="E4" s="364" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F4" s="368" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="349" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="353" t="n">
+        <v>0.00183</v>
+      </c>
+      <c r="C5" s="357" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="D5" s="361" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="E5" s="365" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F5" s="369" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="370" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="371" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="372" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="373" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="374" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="375" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="376" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="377" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="378" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="386" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="394" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="D2" s="402" t="n">
+        <v>0.00548</v>
+      </c>
+      <c r="E2" s="410" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="F2" s="418" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="G2" s="426" t="n">
+        <v>0.687</v>
+      </c>
+      <c r="H2" s="434" t="n">
+        <v>0.842</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="379" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="387" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="395" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="D3" s="403" t="n">
+        <v>-0.0326</v>
+      </c>
+      <c r="E3" s="411" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="F3" s="419" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="G3" s="427" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="H3" s="435" t="n">
+        <v>0.869</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="380" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="388" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="396" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="D4" s="404" t="n">
+        <v>5.56E-4</v>
+      </c>
+      <c r="E4" s="412" t="n">
+        <v>0.814</v>
+      </c>
+      <c r="F4" s="420" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G4" s="428" t="n">
+        <v>0.813</v>
+      </c>
+      <c r="H4" s="436" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="381" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="389" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="397" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="D5" s="405" t="n">
+        <v>-0.0464</v>
+      </c>
+      <c r="E5" s="413" t="n">
+        <v>0.686</v>
+      </c>
+      <c r="F5" s="421" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="G5" s="429" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="H5" s="437" t="n">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="382" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="390" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="398" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="D6" s="406" t="n">
+        <v>-0.00759</v>
+      </c>
+      <c r="E6" s="414" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F6" s="422" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="G6" s="430" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="H6" s="438" t="n">
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="383" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="391" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="399" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="D7" s="407" t="n">
+        <v>-0.0132</v>
+      </c>
+      <c r="E7" s="415" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="F7" s="423" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G7" s="431" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="H7" s="439" t="n">
+        <v>0.844</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="384" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="392" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="400" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="D8" s="408" t="n">
+        <v>-2.04E-4</v>
+      </c>
+      <c r="E8" s="416" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="F8" s="424" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="G8" s="432" t="n">
+        <v>0.818</v>
+      </c>
+      <c r="H8" s="440" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="385" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="393" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="401" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="D9" s="409" t="n">
+        <v>-0.046</v>
+      </c>
+      <c r="E9" s="417" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="F9" s="425" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="G9" s="433" t="n">
+        <v>0.691</v>
+      </c>
+      <c r="H9" s="441" t="n">
+        <v>0.838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>